--- a/Comp Genom Final Project Data.xlsx
+++ b/Comp Genom Final Project Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>Effect of Changing FPR on Performance</t>
   </si>
@@ -35,15 +35,6 @@
     <t>FPR</t>
   </si>
   <si>
-    <t>avgMouseMatches: 0.0</t>
-  </si>
-  <si>
-    <t>Hash Count: 3</t>
-  </si>
-  <si>
-    <t>Bloom Tree size: 56</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -71,30 +62,6 @@
     <t>Query Threshold</t>
   </si>
   <si>
-    <t>FPR: 0.1</t>
-  </si>
-  <si>
-    <t>Query Threshold: 0.3</t>
-  </si>
-  <si>
-    <t>Kmer_length: 20</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.0</t>
-  </si>
-  <si>
-    <t>AvgMatches: 0.328</t>
-  </si>
-  <si>
-    <t>Bloom Filter size: 120044200</t>
-  </si>
-  <si>
-    <t>Construciton Time: 593.7528820037842</t>
-  </si>
-  <si>
-    <t>Query Time: 22.30403995513916</t>
-  </si>
-  <si>
     <t>Kmer_Length</t>
   </si>
   <si>
@@ -105,13 +72,16 @@
   </si>
   <si>
     <t>Kmer Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of Changing Kmer Length </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +115,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
     <font>
       <u/>
@@ -182,10 +158,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,50 +460,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -537,18 +524,22 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3">
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -561,12 +552,16 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -579,42 +574,48 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -627,18 +628,22 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8">
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -651,12 +656,16 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -669,42 +678,54 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="P10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L11" s="1"/>
-      <c r="P11" s="1" t="s">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
       <c r="N12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -717,15 +738,16 @@
       <c r="F13">
         <v>1.056</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13">
+      <c r="M13" s="1"/>
+      <c r="N13">
         <v>20</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -738,9 +760,16 @@
       <c r="F14">
         <v>1.048</v>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -753,33 +782,54 @@
       <c r="F15">
         <v>1.048</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>1.05</v>
+      </c>
+      <c r="M17" s="1"/>
       <c r="N17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -792,15 +842,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18">
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>1.048</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18">
         <v>20</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -813,9 +870,10 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -828,33 +886,54 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1"/>
       <c r="N22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -867,15 +946,22 @@
       <c r="F23">
         <v>120035574</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23">
+      <c r="J23">
         <v>20</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1"/>
       <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
         <v>120044200</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -888,9 +974,15 @@
       <c r="F24">
         <v>120035574</v>
       </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -903,33 +995,48 @@
       <c r="F25">
         <v>120035574</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>120057140</v>
+      </c>
+      <c r="M27" s="1"/>
       <c r="N27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -942,15 +1049,22 @@
       <c r="F28">
         <v>604.338368892669</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28">
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>120052827</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28">
         <v>20</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>593.75288200378395</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.3</v>
       </c>
@@ -963,9 +1077,16 @@
       <c r="F29">
         <v>623.14454913139298</v>
       </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>120044200</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -978,33 +1099,48 @@
       <c r="F30">
         <v>950.25362682342495</v>
       </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>120035574</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="N32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="O32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -1017,15 +1153,22 @@
       <c r="F33">
         <v>243.45062613487201</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33">
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>657.98621988296497</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33">
         <v>20</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>22.3040399551391</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.3</v>
       </c>
@@ -1038,9 +1181,15 @@
       <c r="F34">
         <v>263.23813796043299</v>
       </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>620.81203889846802</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -1053,29 +1202,41 @@
       <c r="F35">
         <v>246.81621313094999</v>
       </c>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>623.14454913139298</v>
+      </c>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0.3</v>
@@ -1086,103 +1247,133 @@
       <c r="F38">
         <v>0.1</v>
       </c>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L70" s="2"/>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>509.77566695213301</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <v>261.93096494674597</v>
+      </c>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>263.23813796043299</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comp Genom Final Project Data.xlsx
+++ b/Comp Genom Final Project Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Effect of Changing FPR on Performance</t>
   </si>
@@ -35,6 +35,18 @@
     <t>FPR</t>
   </si>
   <si>
+    <t>avgMouseMatches: 0.0</t>
+  </si>
+  <si>
+    <t>Bloom Tree size: 56</t>
+  </si>
+  <si>
+    <t>AvgMatches: 5.0</t>
+  </si>
+  <si>
+    <t>avgMouseMatches: 5.0</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -62,6 +74,18 @@
     <t>Query Threshold</t>
   </si>
   <si>
+    <t>FPR: 0.3</t>
+  </si>
+  <si>
+    <t>Query Threshold: 0.3</t>
+  </si>
+  <si>
+    <t>Hash Count: 1</t>
+  </si>
+  <si>
+    <t>Kmer_length: 20</t>
+  </si>
+  <si>
     <t>Kmer_Length</t>
   </si>
   <si>
@@ -75,6 +99,60 @@
   </si>
   <si>
     <t xml:space="preserve">Effect of Changing Kmer Length </t>
+  </si>
+  <si>
+    <t>Kmer_length: 10</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>Bloom Filter size: 62773071</t>
+  </si>
+  <si>
+    <t>Construciton Time: 358.88958382606506</t>
+  </si>
+  <si>
+    <t>Query Time: 30.522446155548096</t>
+  </si>
+  <si>
+    <t>Kmer_length: 15</t>
+  </si>
+  <si>
+    <t>AvgMatches: 0.358</t>
+  </si>
+  <si>
+    <t>Bloom Filter size: 62770816</t>
+  </si>
+  <si>
+    <t>Construciton Time: 323.3772609233856</t>
+  </si>
+  <si>
+    <t>Query Time: 20.029879093170166</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.374</t>
+  </si>
+  <si>
+    <t>AvgMatches: 0.374</t>
+  </si>
+  <si>
+    <t>Bloom Filter size: 62768561</t>
+  </si>
+  <si>
+    <t>Construciton Time: 328.01292300224304</t>
+  </si>
+  <si>
+    <t>Query Time: 19.616085052490234</t>
+  </si>
+  <si>
+    <t>Accuracy: most likely 1</t>
+  </si>
+  <si>
+    <t>Accuracy: probably 0.358</t>
+  </si>
+  <si>
+    <t>Additional Performance on Testing Data</t>
   </si>
 </sst>
 </file>
@@ -156,8 +234,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -182,9 +262,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,58 +542,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -531,15 +619,12 @@
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -560,14 +645,20 @@
       </c>
       <c r="M4" s="3"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5">
         <v>0.5</v>
       </c>
@@ -581,9 +672,18 @@
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J6">
         <v>30</v>
       </c>
@@ -592,30 +692,36 @@
       </c>
       <c r="M6" s="1"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -629,21 +735,18 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8">
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -664,8 +767,11 @@
       </c>
       <c r="M9" s="1"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -685,9 +791,18 @@
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>0.35799999999999998</v>
+      </c>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J11">
         <v>20</v>
       </c>
@@ -696,19 +811,22 @@
       </c>
       <c r="M11" s="1"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>30</v>
@@ -718,14 +836,17 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -739,15 +860,9 @@
         <v>1.056</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>0.32800000000000001</v>
-      </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -761,15 +876,18 @@
         <v>1.048</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -789,9 +907,18 @@
         <v>5</v>
       </c>
       <c r="M15" s="1"/>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>0.35799999999999998</v>
+      </c>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J16">
         <v>10</v>
       </c>
@@ -800,19 +927,22 @@
       </c>
       <c r="M16" s="3"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>20</v>
@@ -822,14 +952,17 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -849,15 +982,12 @@
         <v>1.048</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18">
-        <v>20</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -872,8 +1002,11 @@
       </c>
       <c r="M19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -887,15 +1020,24 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M20" s="1"/>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J21">
         <v>5</v>
       </c>
@@ -904,19 +1046,22 @@
       </c>
       <c r="M21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -926,14 +1071,17 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -953,15 +1101,12 @@
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23">
-        <v>20</v>
-      </c>
-      <c r="O23">
-        <v>120044200</v>
-      </c>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -981,8 +1126,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -996,30 +1144,36 @@
         <v>120035574</v>
       </c>
       <c r="M25" s="1"/>
+      <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>120057140</v>
+      </c>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M26" s="1"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -1029,14 +1183,17 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -1056,15 +1213,12 @@
         <v>120052827</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28">
-        <v>20</v>
-      </c>
-      <c r="O28">
-        <v>593.75288200378395</v>
-      </c>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.3</v>
       </c>
@@ -1085,8 +1239,11 @@
       </c>
       <c r="M29" s="1"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1106,41 +1263,56 @@
         <v>120035574</v>
       </c>
       <c r="M30" s="1"/>
+      <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>614.70497798919598</v>
+      </c>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M31" s="1"/>
       <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
         <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>6</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -1160,15 +1332,12 @@
         <v>657.98621988296497</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33">
-        <v>20</v>
-      </c>
-      <c r="O33">
-        <v>22.3040399551391</v>
-      </c>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.3</v>
       </c>
@@ -1188,8 +1357,11 @@
         <v>620.81203889846802</v>
       </c>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -1209,34 +1381,49 @@
         <v>623.14454913139298</v>
       </c>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35">
+        <v>24.163237810134799</v>
+      </c>
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
       <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="R37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>14</v>
-      </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
       </c>
       <c r="B38">
         <v>0.3</v>
@@ -1254,8 +1441,14 @@
         <v>509.77566695213301</v>
       </c>
       <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J39">
         <v>20</v>
       </c>
@@ -1263,8 +1456,14 @@
         <v>261.93096494674597</v>
       </c>
       <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J40">
         <v>30</v>
       </c>
@@ -1273,10 +1472,10 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
         <v>1</v>
       </c>
@@ -1285,28 +1484,28 @@
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K43">
         <v>0.3</v>
       </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.2">
